--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - "R"</t>
   </si>
 </sst>
 </file>
@@ -427,9 +430,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,9 +440,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -495,6 +492,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -822,499 +825,541 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>2004</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>100000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="str">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="str">
         <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2005</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>100000</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>2006</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>100000</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>2007</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>100000</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>2008</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="C7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8">
         <v>106084</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="str">
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>2009</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="C8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8">
         <v>106084</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="str">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>2010</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="C9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8">
         <v>112000</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="str">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>2011</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
+      <c r="C10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8">
         <v>115000</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="str">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>2012</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="C11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8">
         <v>115000</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="str">
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>2013</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
         <v>119000</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="str">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>2013</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="C13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8">
         <v>94000</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="str">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>2014</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
+      <c r="C14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8">
         <v>103000</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12" t="str">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>2015</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
+      <c r="C15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8">
         <v>122000</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="str">
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>2016</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="C16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8">
         <v>90000</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="str">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>2016</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10">
+      <c r="C17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8">
         <v>105000</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12" t="str">
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>2017</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="C18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8">
         <v>90000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>2017</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10">
+      <c r="C19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8">
         <v>105000</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>2018</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="C20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8">
         <v>86000</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>2018</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="C21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8">
         <v>94000</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>2019</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10">
+      <c r="C22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8">
         <v>79000</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>2019</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10">
+      <c r="C23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="8">
         <v>79000</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1383,79 +1428,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Obv: With mint symbol - "R"</t>
+  </si>
+  <si>
+    <t>500 years since the death of Raphael</t>
+  </si>
+  <si>
+    <t>100 years since the birth of Pope John Paul II</t>
   </si>
 </sst>
 </file>
@@ -481,6 +487,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,12 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -505,7 +511,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -552,9 +574,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -823,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -846,27 +868,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -888,7 +910,7 @@
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -901,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G25" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -912,7 +934,7 @@
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -936,7 +958,7 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -961,7 +983,7 @@
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -985,7 +1007,7 @@
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -1009,7 +1031,7 @@
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1033,7 +1055,7 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -1058,7 +1080,7 @@
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1082,7 +1104,7 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -1106,7 +1128,7 @@
       <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1130,7 +1152,7 @@
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -1154,7 +1176,7 @@
       <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -1178,7 +1200,7 @@
       <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1202,7 +1224,7 @@
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -1226,7 +1248,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -1250,7 +1272,7 @@
       <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1261,6 +1283,10 @@
       </c>
       <c r="F18" s="9">
         <v>0</v>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1270,7 +1296,7 @@
       <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -1281,6 +1307,10 @@
       </c>
       <c r="F19" s="9">
         <v>0</v>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1290,7 +1320,7 @@
       <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1301,6 +1331,10 @@
       </c>
       <c r="F20" s="9">
         <v>0</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1310,7 +1344,7 @@
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -1321,6 +1355,10 @@
       </c>
       <c r="F21" s="9">
         <v>0</v>
+      </c>
+      <c r="G21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1330,7 +1368,7 @@
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1341,6 +1379,10 @@
       </c>
       <c r="F22" s="9">
         <v>0</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1350,7 +1392,7 @@
       <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -1361,6 +1403,54 @@
       </c>
       <c r="F23" s="9">
         <v>0</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1370,12 +1460,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F7:F23">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F23 F3">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1387,11 +1477,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E01177-A41A-4376-A435-5509F7F99767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -214,12 +215,54 @@
   </si>
   <si>
     <t>100 years since the birth of Pope John Paul II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	76.000</t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t>106.084</t>
+  </si>
+  <si>
+    <t>112.000</t>
+  </si>
+  <si>
+    <t>115.000</t>
+  </si>
+  <si>
+    <t>119.000</t>
+  </si>
+  <si>
+    <t>94.000</t>
+  </si>
+  <si>
+    <t>103.000</t>
+  </si>
+  <si>
+    <t>122.000</t>
+  </si>
+  <si>
+    <t>90.000</t>
+  </si>
+  <si>
+    <t>105.000</t>
+  </si>
+  <si>
+    <t>86.000</t>
+  </si>
+  <si>
+    <t>79.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	74.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,9 +552,18 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -527,15 +579,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -567,16 +610,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -844,30 +887,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -886,7 +929,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
@@ -903,7 +946,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2004</v>
       </c>
@@ -916,8 +959,8 @@
       <c r="D3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8">
-        <v>100000</v>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -927,7 +970,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2005</v>
       </c>
@@ -940,8 +983,8 @@
       <c r="D4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="20">
-        <v>100000</v>
+      <c r="E4" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
@@ -951,7 +994,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2006</v>
       </c>
@@ -964,8 +1007,8 @@
       <c r="D5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="20">
-        <v>100000</v>
+      <c r="E5" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
@@ -976,7 +1019,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2007</v>
       </c>
@@ -989,8 +1032,8 @@
       <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20">
-        <v>100000</v>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>7</v>
@@ -1000,7 +1043,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2008</v>
       </c>
@@ -1013,8 +1056,8 @@
       <c r="D7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8">
-        <v>106084</v>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -1024,7 +1067,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>2009</v>
       </c>
@@ -1037,8 +1080,8 @@
       <c r="D8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8">
-        <v>106084</v>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -1048,7 +1091,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>2010</v>
       </c>
@@ -1061,8 +1104,8 @@
       <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8">
-        <v>112000</v>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -1073,7 +1116,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2011</v>
       </c>
@@ -1086,8 +1129,8 @@
       <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="8">
-        <v>115000</v>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -1097,7 +1140,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2012</v>
       </c>
@@ -1110,8 +1153,8 @@
       <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8">
-        <v>115000</v>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -1121,7 +1164,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>2013</v>
       </c>
@@ -1134,8 +1177,8 @@
       <c r="D12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8">
-        <v>119000</v>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -1145,7 +1188,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>2013</v>
       </c>
@@ -1158,8 +1201,8 @@
       <c r="D13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8">
-        <v>94000</v>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -1169,7 +1212,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>2014</v>
       </c>
@@ -1182,8 +1225,8 @@
       <c r="D14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8">
-        <v>103000</v>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -1193,7 +1236,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>2015</v>
       </c>
@@ -1206,8 +1249,8 @@
       <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8">
-        <v>122000</v>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -1217,7 +1260,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>2016</v>
       </c>
@@ -1230,8 +1273,8 @@
       <c r="D16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8">
-        <v>90000</v>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -1241,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>2016</v>
       </c>
@@ -1254,8 +1297,8 @@
       <c r="D17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8">
-        <v>105000</v>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
@@ -1265,7 +1308,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>2017</v>
       </c>
@@ -1278,8 +1321,8 @@
       <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="8">
-        <v>90000</v>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -1289,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>2017</v>
       </c>
@@ -1302,8 +1345,8 @@
       <c r="D19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="8">
-        <v>105000</v>
+      <c r="E19" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
@@ -1313,7 +1356,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>2018</v>
       </c>
@@ -1326,8 +1369,8 @@
       <c r="D20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8">
-        <v>86000</v>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -1337,7 +1380,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2018</v>
       </c>
@@ -1350,8 +1393,8 @@
       <c r="D21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="8">
-        <v>94000</v>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="9">
         <v>0</v>
@@ -1361,7 +1404,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>2019</v>
       </c>
@@ -1374,8 +1417,8 @@
       <c r="D22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="8">
-        <v>79000</v>
+      <c r="E22" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -1385,7 +1428,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>2019</v>
       </c>
@@ -1398,8 +1441,8 @@
       <c r="D23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="8">
-        <v>79000</v>
+      <c r="E23" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -1409,7 +1452,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>2020</v>
       </c>
@@ -1422,7 +1465,9 @@
       <c r="D24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="9">
         <v>0</v>
       </c>
@@ -1431,7 +1476,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>2020</v>
       </c>
@@ -1444,7 +1489,9 @@
       <c r="D25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F25" s="9">
         <v>0</v>
       </c>
@@ -1494,7 +1541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1511,7 +1558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1534,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1544,14 +1591,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1573,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1584,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1595,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1606,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1617,7 +1664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1630,12 +1677,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Vatican_city\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E01177-A41A-4376-A435-5509F7F99767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693DBE1-FFCB-4AA0-BF54-ACC99993DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>Year</t>
   </si>
@@ -91,9 +100,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -257,13 +263,43 @@
   </si>
   <si>
     <t xml:space="preserve">	74.000</t>
+  </si>
+  <si>
+    <t>450th Anniversary - Birth of Caravaggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	84.300</t>
+  </si>
+  <si>
+    <t>700th Anniversary - Death of Dante Alighieri</t>
+  </si>
+  <si>
+    <t>125th Anniversary - Birth of Pope Paul VI</t>
+  </si>
+  <si>
+    <t>79.250</t>
+  </si>
+  <si>
+    <t>25th Anniversary - Death of Mother Teresa of Calcutta</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Death of Alessandro Manzoni</t>
+  </si>
+  <si>
+    <t>82.500</t>
+  </si>
+  <si>
+    <t>500th Anniversary - Death of Pietro Perugino</t>
+  </si>
+  <si>
+    <t>76.500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -327,6 +363,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -472,10 +512,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,9 +526,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,15 +590,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -596,6 +631,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -617,9 +669,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -888,617 +940,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="13.7265625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f t="shared" ref="G3:G25" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G25" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17">
+        <v>2020.6666666666699</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="C26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" ref="G26:G27" si="1">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17">
+        <v>2021.1666666666699</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17">
+        <v>2021.6666666666699</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="shared" ref="G28:G31" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17">
+        <v>2022.1666666666699</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <v>2022.6666666666699</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
+        <v>2023.1666666666699</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1506,13 +1730,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F7:F23">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F3 F7:F23 F26 F28 F30">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F23 F3">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="F7:F23 F3 F26 F28 F30">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1523,12 +1748,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F27 F29 F31">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F27 F29 F31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1540,12 +1799,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1557,12 +1816,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1588,91 +1847,91 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="22" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693DBE1-FFCB-4AA0-BF54-ACC99993DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D643698-3966-4D41-805D-3305DB51A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>76.500</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -592,6 +592,15 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -639,15 +648,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -669,9 +669,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -946,7 +946,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -966,17 +966,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -985,16 +985,16 @@
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1004,16 +1004,16 @@
         <v>2004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>2008</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1129,16 +1129,16 @@
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1154,16 +1154,16 @@
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>2011</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>2012</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1229,16 +1229,16 @@
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -1279,16 +1279,16 @@
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>2015</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -1329,16 +1329,16 @@
         <v>2016</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -1404,16 +1404,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>2018</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>2019</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>2020</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>2020.6666666666699</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>2021.1666666666699</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>2021.6666666666699</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>2022.1666666666699</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>2022.6666666666699</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>2023.1666666666699</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -1732,7 +1732,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3 F7:F23 F26 F28 F30">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1749,11 +1749,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F27 F29 F31">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F27 F29 F31">
+  <conditionalFormatting sqref="F27 F24 F29 F31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1766,7 +1766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1783,7 +1783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1800,7 +1800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1817,7 +1817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1859,13 +1859,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1884,10 +1884,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1895,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1906,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1917,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1928,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
